--- a/biology/Botanique/Umibudō/Umibudō.xlsx
+++ b/biology/Botanique/Umibudō/Umibudō.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Umibud%C5%8D</t>
+          <t>Umibudō</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Umibudō (海葡萄?, littéralement « raisins de la mer ») est un aliment typique de la cuisine d'Okinawa et qu'on ne trouve pas ailleurs au Japon.
-En forme de grappe de raisins miniature, il s'agit de diverses algues (Caulerpa lentillifera ou Caulerpa sertularioides[1]), au goût très apprécié par certains, que l'on peut trouver dans un plat séparément, ou accompagnant les condiments servis habituellement lors d'un repas japonais.
-Umibudō peut également désigner les plantes des bords de mer de l'espèce Coccoloba uvifera, appelée en français « raisinier bord de mer[2] ».
+En forme de grappe de raisins miniature, il s'agit de diverses algues (Caulerpa lentillifera ou Caulerpa sertularioides), au goût très apprécié par certains, que l'on peut trouver dans un plat séparément, ou accompagnant les condiments servis habituellement lors d'un repas japonais.
+Umibudō peut également désigner les plantes des bords de mer de l'espèce Coccoloba uvifera, appelée en français « raisinier bord de mer ».
 			Caulerpa lentillifera sur un marché aux Philippines
 			détail de Caulerpa lentillifera
 			détail d’Umibudō
